--- a/nba2k_editor/Offsets/ImportStaff.xlsx
+++ b/nba2k_editor/Offsets/ImportStaff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Staff Vitals" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Staff Attributes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Staff Style" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Staff Coaching" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Staff Vitals" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Staff Attributes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Staff Style" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Staff Coaching" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,16 +20,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,137 +425,137 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Face ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Position</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Salary</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Staff Vitals - ARM_SCALE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Staff Vitals - BODYLENGTH</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Staff Vitals - BODY_SHAPE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Staff Vitals - CURRENT_TEAM</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Staff Vitals - EYE_COLOR</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Staff Vitals - FIRSTNAME</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Staff Vitals - GENDER</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Staff Vitals - HAIR_LENGTH</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Staff Vitals - HAND_SCALE</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Staff Vitals - HEIGHT_CM</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Staff Vitals - LOWER_SCALE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Staff Vitals - NECK_HEAD_SCALE</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Staff Vitals - PERSONALITY</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Staff Vitals - POSITION</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Staff Vitals - SALARY</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Staff Vitals - SHOULDERWIDTH</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Staff Vitals - SKINCOLOR</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Staff Vitals - SKINTYPE</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>Staff Vitals - UNIQUE_PHOTO_ID</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>Staff Vitals - WINGSPAN_CM</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Staff Vitals - YEARS_IN_LEAGUE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Staff Vitals - YEARS_LEFT</t>
         </is>
@@ -593,117 +581,117 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Analytics</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Business</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Charisma</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Current Team</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Defensive Coaching</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Offensive Coaching</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Potential</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Sports Medicine</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Staff Attributes - BUSINESS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Staff Attributes - CONTRACTS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Staff Attributes - DEFENSE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_BUSINESS</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_CONTRACTS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_DEFENSE</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_OFFENSE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_SCOUTING</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_TRADING</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Staff Attributes - MAX_TRAINING</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Staff Attributes - OFFENSE</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Staff Attributes - POTENTIAL</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Staff Attributes - SCOUTING</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Staff Attributes - TRADING</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Staff Attributes - TRAINING</t>
         </is>
@@ -729,87 +717,87 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Balanced Proficiency</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Defense Proficiency</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Grit &amp; Grind Proficiency</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pace &amp;Space Proficiency</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Perimeter Centric Proficiency</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Seven Seconds Proficiency</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Staff Style - ACTIVE_SYSTEM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Staff Style - GRIT_&amp;_GRIND_PROFICIENCY</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>Staff Style - GUARDS_VS_FORWARDS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Staff Style - INSIDE_VS_OUTSIDE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Staff Style - OFFENSE_VS_DEFENSE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Staff Style - PACE_&amp;_SPACE_PROFICIENCY</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>Staff Style - PERIMETER_CENTERIC_PROFICIENCY</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Staff Style - POST_CENTRIC_PROFICIENCY</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Staff Style - PREFERRED_SYSTEM</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Staff Style - SEVEN_SECONDS_PROFICIENCY</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
         <is>
           <t>Staff Style - STYLE_N#1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Staff Style - STYLE_N#2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Staff Style - STYLE_N#3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Triangle Proficiency</t>
         </is>
@@ -835,12 +823,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Staff Coaching - BENCH_UTILIZATION</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Staff Coaching - PLAYBOOK</t>
         </is>

--- a/nba2k_editor/Offsets/ImportStaff.xlsx
+++ b/nba2k_editor/Offsets/ImportStaff.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,125 +437,120 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Position</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Position</t>
+          <t>Staff Vitals - ARM_SCALE</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Salary</t>
+          <t>Staff Vitals - BODYLENGTH</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Staff Vitals - ARM_SCALE</t>
+          <t>Staff Vitals - BODY_SHAPE</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Staff Vitals - BODYLENGTH</t>
+          <t>Staff Vitals - CURRENT_TEAM</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Staff Vitals - BODY_SHAPE</t>
+          <t>Staff Vitals - EYE_COLOR</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Staff Vitals - CURRENT_TEAM</t>
+          <t>Staff Vitals - FIRSTNAME</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Staff Vitals - EYE_COLOR</t>
+          <t>Staff Vitals - GENDER</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Staff Vitals - FIRSTNAME</t>
+          <t>Staff Vitals - HAIR_LENGTH</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Staff Vitals - GENDER</t>
+          <t>Staff Vitals - HAND_SCALE</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Staff Vitals - HAIR_LENGTH</t>
+          <t>Staff Vitals - HEIGHT_CM</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Staff Vitals - HAND_SCALE</t>
+          <t>Staff Vitals - LASTNAME</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Staff Vitals - HEIGHT_CM</t>
+          <t>Staff Vitals - LOWER_SCALE</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Staff Vitals - LOWER_SCALE</t>
+          <t>Staff Vitals - NECK_HEAD_SCALE</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Staff Vitals - NECK_HEAD_SCALE</t>
+          <t>Staff Vitals - PERSONALITY</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Staff Vitals - PERSONALITY</t>
+          <t>Staff Vitals - POSITION</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Staff Vitals - POSITION</t>
+          <t>Staff Vitals - SALARY</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Staff Vitals - SALARY</t>
+          <t>Staff Vitals - SHOULDERWIDTH</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Staff Vitals - SHOULDERWIDTH</t>
+          <t>Staff Vitals - SKINCOLOR</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>Staff Vitals - SKINCOLOR</t>
+          <t>Staff Vitals - SKINTYPE</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>Staff Vitals - SKINTYPE</t>
+          <t>Staff Vitals - UNIQUE_PHOTO_ID</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>Staff Vitals - UNIQUE_PHOTO_ID</t>
+          <t>Staff Vitals - WINGSPAN_CM</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Staff Vitals - WINGSPAN_CM</t>
+          <t>Staff Vitals - YEARS_IN_LEAGUE</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
-        <is>
-          <t>Staff Vitals - YEARS_IN_LEAGUE</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
         <is>
           <t>Staff Vitals - YEARS_LEFT</t>
         </is>
@@ -572,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,115 +578,80 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Analytics</t>
+          <t>Current Team</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Staff Attributes - BUSINESS</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Charisma</t>
+          <t>Staff Attributes - CONTRACTS</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Current Team</t>
+          <t>Staff Attributes - DEFENSE</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Defensive Coaching</t>
+          <t>Staff Attributes - MAX_BUSINESS</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Offensive Coaching</t>
+          <t>Staff Attributes - MAX_CONTRACTS</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Potential</t>
+          <t>Staff Attributes - MAX_DEFENSE</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Sports Medicine</t>
+          <t>Staff Attributes - MAX_OFFENSE</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Staff Attributes - BUSINESS</t>
+          <t>Staff Attributes - MAX_SCOUTING</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Staff Attributes - CONTRACTS</t>
+          <t>Staff Attributes - MAX_TRADING</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Staff Attributes - DEFENSE</t>
+          <t>Staff Attributes - MAX_TRAINING</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_BUSINESS</t>
+          <t>Staff Attributes - OFFENSE</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_CONTRACTS</t>
+          <t>Staff Attributes - POTENTIAL</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_DEFENSE</t>
+          <t>Staff Attributes - SCOUTING</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Staff Attributes - MAX_OFFENSE</t>
+          <t>Staff Attributes - TRADING</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
-        <is>
-          <t>Staff Attributes - MAX_SCOUTING</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Staff Attributes - MAX_TRADING</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Staff Attributes - MAX_TRAINING</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Staff Attributes - OFFENSE</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Staff Attributes - POTENTIAL</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Staff Attributes - SCOUTING</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Staff Attributes - TRADING</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
         <is>
           <t>Staff Attributes - TRAINING</t>
         </is>
@@ -719,12 +679,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Balanced Proficiency</t>
+          <t>Grit &amp; Grind Proficiency</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Defense Proficiency</t>
+          <t>Pace &amp;Space Proficiency</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -734,42 +694,42 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Post Centric Proficiency</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Staff Style - ACTIVE_SYSTEM</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Staff Style - GRIT_&amp;_GRIND_PROFICIENCY</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Staff Style - BALANCED_PROFICIENCY</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Staff Style - DEFENSE_PROFICIENCY</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Staff Style - GUARDS_VS_FORWARDS</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Staff Style - INSIDE_VS_OUTSIDE</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Staff Style - OFFENSE_VS_DEFENSE</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Staff Style - PACE_&amp;_SPACE_PROFICIENCY</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Staff Style - PERIMETER_CENTERIC_PROFICIENCY</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Staff Style - POST_CENTRIC_PROFICIENCY</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
